--- a/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 42,92</t>
+          <t>10,39; 42,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 53,43</t>
+          <t>11,17; 54,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 71,05</t>
+          <t>27,41; 71,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 47,12</t>
+          <t>12,3; 45,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 54,84</t>
+          <t>15,51; 55,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 48,21</t>
+          <t>6,44; 50,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 37,94</t>
+          <t>14,66; 38,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 48,21</t>
+          <t>18,43; 46,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,05; 55,4</t>
+          <t>23,07; 53,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,44; 41,69</t>
+          <t>26,09; 41,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,69; 46,47</t>
+          <t>31,06; 46,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 45,48</t>
+          <t>28,23; 45,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,61</t>
+          <t>2,76; 11,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,63; 41,78</t>
+          <t>24,79; 41,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 44,2</t>
+          <t>26,02; 43,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,56; 47,69</t>
+          <t>29,79; 48,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,59</t>
+          <t>3,66; 12,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,88; 39,25</t>
+          <t>28,17; 39,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,4; 43,11</t>
+          <t>31,18; 42,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,99; 43,27</t>
+          <t>31,29; 44,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,8</t>
+          <t>3,91; 10,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 41,19</t>
+          <t>27,68; 40,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,36; 35,54</t>
+          <t>23,62; 36,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 41,14</t>
+          <t>29,63; 40,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,11</t>
+          <t>6,82; 13,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,28; 29,12</t>
+          <t>17,84; 30,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,84; 36,6</t>
+          <t>23,42; 37,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,41; 37,0</t>
+          <t>24,2; 36,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 20,94</t>
+          <t>12,05; 20,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,29; 33,07</t>
+          <t>24,55; 33,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,65; 34,7</t>
+          <t>25,82; 34,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,05; 37,21</t>
+          <t>28,85; 37,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 15,46</t>
+          <t>10,19; 15,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 27,77</t>
+          <t>15,8; 27,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,9; 42,72</t>
+          <t>27,07; 41,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 43,77</t>
+          <t>29,9; 43,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 24,0</t>
+          <t>13,5; 23,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 32,82</t>
+          <t>19,2; 32,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 39,48</t>
+          <t>25,52; 40,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 42,49</t>
+          <t>28,69; 42,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,71; 34,73</t>
+          <t>14,3; 35,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 27,64</t>
+          <t>18,92; 28,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,43; 39,17</t>
+          <t>28,6; 38,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,5; 41,23</t>
+          <t>31,73; 41,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 26,61</t>
+          <t>15,78; 26,29</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,58; 30,64</t>
+          <t>19,42; 31,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,81; 56,29</t>
+          <t>43,42; 56,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,58; 46,32</t>
+          <t>33,88; 46,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,3; 41,94</t>
+          <t>29,06; 40,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,27; 37,81</t>
+          <t>24,69; 36,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,63; 57,78</t>
+          <t>42,78; 57,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,15; 44,94</t>
+          <t>31,17; 43,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,49; 35,93</t>
+          <t>24,03; 36,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,06; 32,19</t>
+          <t>23,74; 31,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,81; 55,26</t>
+          <t>45,85; 55,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,25; 43,92</t>
+          <t>34,42; 43,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,22; 37,03</t>
+          <t>28,59; 36,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,84; 31,16</t>
+          <t>24,96; 31,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,63; 41,6</t>
+          <t>34,76; 41,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,91; 40,44</t>
+          <t>34,27; 40,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,07</t>
+          <t>14,89; 20,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,92; 31,64</t>
+          <t>25,09; 31,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,54; 41,61</t>
+          <t>34,41; 41,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,58; 38,4</t>
+          <t>31,58; 38,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 23,16</t>
+          <t>16,34; 23,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 30,31</t>
+          <t>25,79; 30,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,7; 40,91</t>
+          <t>35,82; 40,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,99; 38,61</t>
+          <t>33,9; 38,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 20,37</t>
+          <t>16,1; 20,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,39; 42,94</t>
+          <t>24,5; 38,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,17; 54,14</t>
+          <t>26,91; 43,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,41; 71,68</t>
+          <t>28,19; 44,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>3,42; 11,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 45,94</t>
+          <t>25,46; 39,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 55,91</t>
+          <t>30,27; 45,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 50,28</t>
+          <t>30,11; 46,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>2,32; 9,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 38,64</t>
+          <t>26,61; 37,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 46,15</t>
+          <t>30,69; 41,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 53,21</t>
+          <t>31,78; 43,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>3,6; 8,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,09; 41,61</t>
+          <t>18,22; 29,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,06; 46,79</t>
+          <t>24,65; 37,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,23; 45,53</t>
+          <t>25,42; 36,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 11,34</t>
+          <t>11,85; 20,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,79; 41,47</t>
+          <t>27,07; 39,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,02; 43,19</t>
+          <t>24,27; 36,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 48,8</t>
+          <t>29,24; 40,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,87</t>
+          <t>7,22; 14,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,17; 39,17</t>
+          <t>24,51; 33,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,18; 42,68</t>
+          <t>25,92; 34,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,29; 44,11</t>
+          <t>28,89; 36,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 10,01</t>
+          <t>9,98; 15,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>23,23%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,68; 40,12</t>
+          <t>19,71; 32,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,62; 36,22</t>
+          <t>25,46; 39,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,63; 40,69</t>
+          <t>29,15; 42,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,91</t>
+          <t>14,42; 57,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 30,19</t>
+          <t>14,94; 27,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,42; 37,28</t>
+          <t>27,92; 42,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,2; 36,48</t>
+          <t>30,02; 43,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 20,71</t>
+          <t>13,74; 24,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 33,07</t>
+          <t>18,83; 27,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,82; 34,44</t>
+          <t>28,49; 39,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,85; 37,63</t>
+          <t>32,17; 41,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,34</t>
+          <t>16,22; 41,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>51,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>50,5%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>32,66%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 27,63</t>
+          <t>25,01; 37,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,07; 41,27</t>
+          <t>43,83; 58,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,9; 43,55</t>
+          <t>32,27; 45,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 23,9</t>
+          <t>24,19; 36,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 32,16</t>
+          <t>19,58; 30,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,52; 40,2</t>
+          <t>43,46; 56,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,69; 42,02</t>
+          <t>33,25; 46,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,3; 35,42</t>
+          <t>29,09; 41,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 28,19</t>
+          <t>23,82; 32,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 38,39</t>
+          <t>45,42; 54,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,73; 41,18</t>
+          <t>34,14; 43,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,78; 26,29</t>
+          <t>28,71; 37,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>50,5%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>19,03%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,42; 31,16</t>
+          <t>25,11; 31,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,42; 56,79</t>
+          <t>34,46; 41,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,88; 46,7</t>
+          <t>31,61; 38,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,06; 40,82</t>
+          <t>16,9; 31,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,69; 36,57</t>
+          <t>24,8; 31,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,78; 57,42</t>
+          <t>34,92; 41,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,17; 43,88</t>
+          <t>34,31; 40,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,03; 36,01</t>
+          <t>14,75; 19,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,74; 31,74</t>
+          <t>25,76; 30,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,85; 55,82</t>
+          <t>35,81; 40,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,42; 43,37</t>
+          <t>33,97; 38,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,59; 36,88</t>
+          <t>16,67; 25,18</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>27,93%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>38,26%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>37,37%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,26%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>38,03%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>35,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,09%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>28,02%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>38,15%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>36,23%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>18,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>24,96; 31,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>34,76; 41,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>34,27; 40,75</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,89; 20,13</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>25,09; 31,61</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>34,41; 41,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>31,58; 38,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>16,34; 23,15</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>25,79; 30,2</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>35,82; 40,78</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>33,9; 38,93</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,1; 20,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
